--- a/matching and patching/4_stenosis/5_Compare/CB_G_C comparsion.xlsx
+++ b/matching and patching/4_stenosis/5_Compare/CB_G_C comparsion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PhD\PhD\matching and patching\4_stenosis\5_Compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C47447-1C19-4834-9196-7BAC388C4973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDA81AA-836C-4488-BBB9-C3D3306659E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="0" windowWidth="31455" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2952,7 +2952,7 @@
   <dimension ref="A1:AL68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35:AK35"/>
+      <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2964,7 +2964,7 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>-0.30646499999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3010,14 +3010,8 @@
         <f>ABS(C3-C2)</f>
         <v>9.1711999999999988E-2</v>
       </c>
-      <c r="V3">
-        <v>0.2793500000000001</v>
-      </c>
-      <c r="W3">
-        <v>9.1711999999999988E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3035,14 +3029,8 @@
         <f t="shared" ref="F4:F32" si="1">ABS(C4-C3)</f>
         <v>6.6508000000000012E-2</v>
       </c>
-      <c r="V4">
-        <v>0.20723999999999998</v>
-      </c>
-      <c r="W4">
-        <v>6.6508000000000012E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3060,14 +3048,8 @@
         <f t="shared" si="1"/>
         <v>4.3679999999999983E-2</v>
       </c>
-      <c r="V5">
-        <v>0.12906200000000001</v>
-      </c>
-      <c r="W5">
-        <v>4.3679999999999983E-2</v>
-      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3085,14 +3067,8 @@
         <f t="shared" si="1"/>
         <v>2.0704400000000012E-2</v>
       </c>
-      <c r="V6">
-        <v>8.5497999999999963E-2</v>
-      </c>
-      <c r="W6">
-        <v>2.0704400000000012E-2</v>
-      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3110,14 +3086,8 @@
         <f>ABS(C7-C6)</f>
         <v>7.5411999999999979E-3</v>
       </c>
-      <c r="V7">
-        <v>4.9235000000000029E-2</v>
-      </c>
-      <c r="W7">
-        <v>7.5411999999999979E-3</v>
-      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3135,14 +3105,8 @@
         <f>ABS(C8-C7)</f>
         <v>3.4473999999999894E-3</v>
       </c>
-      <c r="V8">
-        <v>3.3312000000000008E-2</v>
-      </c>
-      <c r="W8">
-        <v>3.4473999999999894E-3</v>
-      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3160,14 +3124,8 @@
         <f t="shared" si="1"/>
         <v>4.759300000000008E-3</v>
       </c>
-      <c r="V9">
-        <v>2.380199999999999E-2</v>
-      </c>
-      <c r="W9">
-        <v>4.759300000000008E-3</v>
-      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3185,14 +3143,8 @@
         <f t="shared" si="1"/>
         <v>3.3036999999999928E-3</v>
       </c>
-      <c r="V10">
-        <v>1.5658000000000005E-2</v>
-      </c>
-      <c r="W10">
-        <v>3.3036999999999928E-3</v>
-      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3210,14 +3162,8 @@
         <f t="shared" si="1"/>
         <v>5.7411000000000059E-3</v>
       </c>
-      <c r="V11">
-        <v>1.4023000000000008E-2</v>
-      </c>
-      <c r="W11">
-        <v>5.7411000000000059E-3</v>
-      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3235,14 +3181,8 @@
         <f t="shared" si="1"/>
         <v>4.6898999999999968E-3</v>
       </c>
-      <c r="V12">
-        <v>1.2102999999999975E-2</v>
-      </c>
-      <c r="W12">
-        <v>4.6898999999999968E-3</v>
-      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3260,14 +3200,8 @@
         <f t="shared" si="1"/>
         <v>7.5930000000000442E-4</v>
       </c>
-      <c r="V13">
-        <v>1.1508000000000018E-2</v>
-      </c>
-      <c r="W13">
-        <v>7.5930000000000442E-4</v>
-      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3285,14 +3219,8 @@
         <f t="shared" si="1"/>
         <v>1.5562000000000006E-3</v>
       </c>
-      <c r="V14">
-        <v>9.9819999999999909E-3</v>
-      </c>
-      <c r="W14">
-        <v>1.5562000000000006E-3</v>
-      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3310,14 +3238,8 @@
         <f t="shared" si="1"/>
         <v>3.5139999999999963E-3</v>
       </c>
-      <c r="V15">
-        <v>8.992E-3</v>
-      </c>
-      <c r="W15">
-        <v>3.5139999999999963E-3</v>
-      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3335,14 +3257,8 @@
         <f t="shared" si="1"/>
         <v>2.4300000000000016E-4</v>
       </c>
-      <c r="V16">
-        <v>8.0790000000000028E-3</v>
-      </c>
-      <c r="W16">
-        <v>2.4300000000000016E-4</v>
-      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3360,14 +3276,8 @@
         <f t="shared" si="1"/>
         <v>1.4554999999999985E-3</v>
       </c>
-      <c r="V17">
-        <v>5.5359999999999854E-3</v>
-      </c>
-      <c r="W17">
-        <v>1.4554999999999985E-3</v>
-      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3385,14 +3295,8 @@
         <f t="shared" si="1"/>
         <v>2.3478000000000041E-3</v>
       </c>
-      <c r="V18">
-        <v>4.3500000000000205E-3</v>
-      </c>
-      <c r="W18">
-        <v>2.3478000000000041E-3</v>
-      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3410,14 +3314,8 @@
         <f t="shared" si="1"/>
         <v>2.191499999999999E-3</v>
       </c>
-      <c r="V19">
-        <v>4.1349999999999998E-3</v>
-      </c>
-      <c r="W19">
-        <v>2.191499999999999E-3</v>
-      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3435,14 +3333,8 @@
         <f t="shared" si="1"/>
         <v>2.5393000000000013E-3</v>
       </c>
-      <c r="V20">
-        <v>3.7289999999999823E-3</v>
-      </c>
-      <c r="W20">
-        <v>2.5393000000000013E-3</v>
-      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3460,14 +3352,8 @@
         <f t="shared" si="1"/>
         <v>2.1037E-3</v>
       </c>
-      <c r="V21">
-        <v>3.6430000000000073E-3</v>
-      </c>
-      <c r="W21">
-        <v>2.1037E-3</v>
-      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3485,14 +3371,8 @@
         <f t="shared" si="1"/>
         <v>1.3231000000000007E-3</v>
       </c>
-      <c r="V22">
-        <v>3.3140000000000114E-3</v>
-      </c>
-      <c r="W22">
-        <v>1.3231000000000007E-3</v>
-      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3510,14 +3390,8 @@
         <f t="shared" si="1"/>
         <v>1.6942999999999958E-3</v>
       </c>
-      <c r="V23">
-        <v>2.8279999999999972E-3</v>
-      </c>
-      <c r="W23">
-        <v>1.6942999999999958E-3</v>
-      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3535,14 +3409,8 @@
         <f t="shared" si="1"/>
         <v>4.0010000000000046E-4</v>
       </c>
-      <c r="V24">
-        <v>3.1299999999999939E-3</v>
-      </c>
-      <c r="W24">
-        <v>4.0010000000000046E-4</v>
-      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3560,14 +3428,8 @@
         <f t="shared" si="1"/>
         <v>2.0130000000000009E-3</v>
       </c>
-      <c r="V25">
-        <v>2.0030000000000048E-3</v>
-      </c>
-      <c r="W25">
-        <v>2.0130000000000009E-3</v>
-      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3585,14 +3447,8 @@
         <f t="shared" si="1"/>
         <v>6.3790000000000374E-4</v>
       </c>
-      <c r="V26">
-        <v>2.3839999999999972E-3</v>
-      </c>
-      <c r="W26">
-        <v>6.3790000000000374E-4</v>
-      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3610,14 +3466,8 @@
         <f t="shared" si="1"/>
         <v>1.7940000000000317E-4</v>
       </c>
-      <c r="V27">
-        <v>2.3229999999999917E-3</v>
-      </c>
-      <c r="W27">
-        <v>1.7940000000000317E-4</v>
-      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3635,14 +3485,8 @@
         <f t="shared" si="1"/>
         <v>9.8079999999999695E-4</v>
       </c>
-      <c r="V28">
-        <v>1.6390000000000016E-3</v>
-      </c>
-      <c r="W28">
-        <v>9.8079999999999695E-4</v>
-      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3660,14 +3504,8 @@
         <f t="shared" si="1"/>
         <v>6.6690000000000499E-4</v>
       </c>
-      <c r="V29">
-        <v>1.5280000000000016E-3</v>
-      </c>
-      <c r="W29">
-        <v>6.6690000000000499E-4</v>
-      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3685,14 +3523,8 @@
         <f t="shared" si="1"/>
         <v>2.5603999999999974E-3</v>
       </c>
-      <c r="V30">
-        <v>1.7310000000000103E-3</v>
-      </c>
-      <c r="W30">
-        <v>2.5603999999999974E-3</v>
-      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3710,14 +3542,8 @@
         <f t="shared" si="1"/>
         <v>1.3492000000000018E-3</v>
       </c>
-      <c r="V31">
-        <v>6.0999999999999943E-4</v>
-      </c>
-      <c r="W31">
-        <v>1.3492000000000018E-3</v>
-      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3734,250 +3560,6 @@
       <c r="F32">
         <f t="shared" si="1"/>
         <v>1.8012999999999987E-3</v>
-      </c>
-      <c r="V32">
-        <v>1.2000000000012001E-5</v>
-      </c>
-      <c r="W32">
-        <v>1.8012999999999987E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="22:38" x14ac:dyDescent="0.2">
-      <c r="W35">
-        <v>9.1711999999999988E-2</v>
-      </c>
-      <c r="X35">
-        <v>6.6508000000000012E-2</v>
-      </c>
-      <c r="Y35">
-        <v>4.3679999999999983E-2</v>
-      </c>
-      <c r="Z35">
-        <v>2.0704400000000012E-2</v>
-      </c>
-      <c r="AA35">
-        <v>7.5411999999999979E-3</v>
-      </c>
-      <c r="AB35">
-        <v>3.4473999999999894E-3</v>
-      </c>
-      <c r="AC35">
-        <v>4.759300000000008E-3</v>
-      </c>
-      <c r="AD35">
-        <v>3.3036999999999928E-3</v>
-      </c>
-      <c r="AE35">
-        <v>5.7411000000000059E-3</v>
-      </c>
-      <c r="AF35">
-        <v>4.6898999999999968E-3</v>
-      </c>
-      <c r="AG35">
-        <v>7.5930000000000442E-4</v>
-      </c>
-      <c r="AH35">
-        <v>1.5562000000000006E-3</v>
-      </c>
-      <c r="AI35">
-        <v>3.5139999999999963E-3</v>
-      </c>
-      <c r="AJ35">
-        <v>2.4300000000000016E-4</v>
-      </c>
-      <c r="AK35">
-        <v>1.4554999999999985E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="22:38" x14ac:dyDescent="0.2">
-      <c r="W36">
-        <v>5.5359999999999854E-3</v>
-      </c>
-      <c r="X36">
-        <v>4.3500000000000205E-3</v>
-      </c>
-      <c r="Y36">
-        <v>4.1349999999999998E-3</v>
-      </c>
-      <c r="Z36">
-        <v>3.7289999999999823E-3</v>
-      </c>
-      <c r="AA36">
-        <v>3.6430000000000073E-3</v>
-      </c>
-      <c r="AB36">
-        <v>3.3140000000000114E-3</v>
-      </c>
-      <c r="AC36">
-        <v>2.8279999999999972E-3</v>
-      </c>
-      <c r="AD36">
-        <v>3.1299999999999939E-3</v>
-      </c>
-      <c r="AE36">
-        <v>2.0030000000000048E-3</v>
-      </c>
-      <c r="AF36">
-        <v>2.3839999999999972E-3</v>
-      </c>
-      <c r="AG36">
-        <v>2.3229999999999917E-3</v>
-      </c>
-      <c r="AH36">
-        <v>1.6390000000000016E-3</v>
-      </c>
-      <c r="AI36">
-        <v>1.5280000000000016E-3</v>
-      </c>
-      <c r="AJ36">
-        <v>1.7310000000000103E-3</v>
-      </c>
-      <c r="AK36">
-        <v>6.0999999999999943E-4</v>
-      </c>
-      <c r="AL36">
-        <v>1.2000000000012001E-5</v>
-      </c>
-    </row>
-    <row r="37" spans="22:38" x14ac:dyDescent="0.2">
-      <c r="W37">
-        <v>2.3478000000000041E-3</v>
-      </c>
-      <c r="X37">
-        <v>2.191499999999999E-3</v>
-      </c>
-      <c r="Y37">
-        <v>2.5393000000000013E-3</v>
-      </c>
-      <c r="Z37">
-        <v>2.1037E-3</v>
-      </c>
-      <c r="AA37">
-        <v>1.3231000000000007E-3</v>
-      </c>
-      <c r="AB37">
-        <v>1.6942999999999958E-3</v>
-      </c>
-      <c r="AC37">
-        <v>4.0010000000000046E-4</v>
-      </c>
-      <c r="AD37">
-        <v>2.0130000000000009E-3</v>
-      </c>
-      <c r="AE37">
-        <v>6.3790000000000374E-4</v>
-      </c>
-      <c r="AF37">
-        <v>1.7940000000000317E-4</v>
-      </c>
-      <c r="AG37">
-        <v>9.8079999999999695E-4</v>
-      </c>
-      <c r="AH37">
-        <v>6.6690000000000499E-4</v>
-      </c>
-      <c r="AI37">
-        <v>2.5603999999999974E-3</v>
-      </c>
-      <c r="AJ37">
-        <v>1.3492000000000018E-3</v>
-      </c>
-      <c r="AK37">
-        <v>1.8012999999999987E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="22:38" x14ac:dyDescent="0.2">
-      <c r="V41">
-        <v>4.3500000000000205E-3</v>
-      </c>
-      <c r="W41">
-        <v>4.1349999999999998E-3</v>
-      </c>
-      <c r="X41">
-        <v>3.7289999999999823E-3</v>
-      </c>
-      <c r="Y41">
-        <v>3.6430000000000073E-3</v>
-      </c>
-      <c r="Z41">
-        <v>3.3140000000000114E-3</v>
-      </c>
-      <c r="AA41">
-        <v>2.8279999999999972E-3</v>
-      </c>
-      <c r="AB41">
-        <v>3.1299999999999939E-3</v>
-      </c>
-      <c r="AC41">
-        <v>2.0030000000000048E-3</v>
-      </c>
-      <c r="AD41">
-        <v>2.3839999999999972E-3</v>
-      </c>
-      <c r="AE41">
-        <v>2.3229999999999917E-3</v>
-      </c>
-      <c r="AF41">
-        <v>1.6390000000000016E-3</v>
-      </c>
-      <c r="AG41">
-        <v>1.5280000000000016E-3</v>
-      </c>
-      <c r="AH41">
-        <v>1.7310000000000103E-3</v>
-      </c>
-      <c r="AI41">
-        <v>6.0999999999999943E-4</v>
-      </c>
-      <c r="AJ41">
-        <v>1.2000000000012001E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="22:38" x14ac:dyDescent="0.2">
-      <c r="V42">
-        <v>0.2793500000000001</v>
-      </c>
-      <c r="W42">
-        <v>0.20723999999999998</v>
-      </c>
-      <c r="X42">
-        <v>0.12906200000000001</v>
-      </c>
-      <c r="Y42">
-        <v>8.5497999999999963E-2</v>
-      </c>
-      <c r="Z42">
-        <v>4.9235000000000029E-2</v>
-      </c>
-      <c r="AA42">
-        <v>3.3312000000000008E-2</v>
-      </c>
-      <c r="AB42">
-        <v>2.380199999999999E-2</v>
-      </c>
-      <c r="AC42">
-        <v>1.5658000000000005E-2</v>
-      </c>
-      <c r="AD42">
-        <v>1.4023000000000008E-2</v>
-      </c>
-      <c r="AE42">
-        <v>1.2102999999999975E-2</v>
-      </c>
-      <c r="AF42">
-        <v>1.1508000000000018E-2</v>
-      </c>
-      <c r="AG42">
-        <v>9.9819999999999909E-3</v>
-      </c>
-      <c r="AH42">
-        <v>8.992E-3</v>
-      </c>
-      <c r="AI42">
-        <v>8.0790000000000028E-3</v>
-      </c>
-      <c r="AJ42">
-        <v>5.5359999999999854E-3</v>
       </c>
     </row>
     <row r="57" spans="7:38" x14ac:dyDescent="0.2">
